--- a/mbs-perturbation/chatty/svm/chatty-svm-linear-results.xlsx
+++ b/mbs-perturbation/chatty/svm/chatty-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1333333333333334</v>
+        <v>0.1764705882352942</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6581521739130436</v>
+        <v>0.7614130434782609</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3059163059163059</v>
+        <v>0.9870129870129871</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3188405797101449</v>
+        <v>0.8376811594202899</v>
       </c>
     </row>
     <row r="5">
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5714285714285715</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9826086956521739</v>
+        <v>0.9898550724637681</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3153846153846154</v>
+        <v>0.02</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.15</v>
       </c>
       <c r="D7" t="n">
-        <v>0.340952380952381</v>
+        <v>0.03529411764705883</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6531035510383336</v>
+        <v>0.9151924524750612</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chatty/svm/chatty-svm-linear-results.xlsx
+++ b/mbs-perturbation/chatty/svm/chatty-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1764705882352942</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7614130434782609</v>
+        <v>0.5610576923076923</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9870129870129871</v>
+        <v>0.9706730769230769</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8376811594202899</v>
+        <v>0.991304347826087</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9990338164251209</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9898550724637681</v>
+        <v>0.9990338164251208</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
       <c r="C7" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03529411764705883</v>
+        <v>0.180952380952381</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9151924524750612</v>
+        <v>0.9042205499814197</v>
       </c>
     </row>
   </sheetData>
